--- a/testdata/Testdata.xlsx
+++ b/testdata/Testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation_Practise\PlaywrightAutomation\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31174402-E530-45F2-8A75-769CEDD59518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ECB3C9F-4DAE-4419-9BEF-AF6731BD5172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2856" yWindow="2904" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t>Scenario_Name</t>
-  </si>
-  <si>
     <t>ID1</t>
   </si>
   <si>
@@ -55,6 +52,9 @@
   </si>
   <si>
     <t>3_Test_1_StringType</t>
+  </si>
+  <si>
+    <t>ScenarioName</t>
   </si>
 </sst>
 </file>
@@ -402,7 +402,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -413,21 +413,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -436,12 +436,12 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
@@ -450,12 +450,12 @@
         <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2">
         <v>4</v>
@@ -464,10 +464,11 @@
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>